--- a/medicine/Sexualité et sexologie/Doigtage/Doigtage.xlsx
+++ b/medicine/Sexualité et sexologie/Doigtage/Doigtage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le doigtage est une pratique sexuelle consistant à insérer un ou plusieurs doigts dans un vagin[1] ou un anus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le doigtage est une pratique sexuelle consistant à insérer un ou plusieurs doigts dans un vagin ou un anus.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsqu'un poing entier est insérée dans le vagin ou l'anus, on parle de fist-fucking. Le doigtage est à distinguer de l'examination médicale du vagin (toucher vaginal)[2] ainsi que du toucher rectal.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'un poing entier est insérée dans le vagin ou l'anus, on parle de fist-fucking. Le doigtage est à distinguer de l'examination médicale du vagin (toucher vaginal) ainsi que du toucher rectal.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vulve
-Le doigtage fait partie des techniques de masturbation d'une vulve[3], et peut inclure la stimulation du clitoris avec les doigts ou la caresse de la vulve[1]. La stimulation orale ou manuelle de la vulve, et en particulier du clitoris, est le moyen le plus courant pour une femme d'atteindre un orgasme[4],[5],[6]. Le clitoris est en effet un organe hautement érogène[7]. Des mouvements circulaires, de haut en bas ou de gauche à droite peuvent être utilisés pour stimuler la partie externe du clitoris, notamment le gland[8]. Et peut également procurer du plaisir au deux individus 
-Vagin
-La stimulation manuelle du vagin peut donner du plaisir, notamment en stimulant l'entrée du vagin[9].
+          <t>Vulve</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le doigtage fait partie des techniques de masturbation d'une vulve, et peut inclure la stimulation du clitoris avec les doigts ou la caresse de la vulve. La stimulation orale ou manuelle de la vulve, et en particulier du clitoris, est le moyen le plus courant pour une femme d'atteindre un orgasme. Le clitoris est en effet un organe hautement érogène. Des mouvements circulaires, de haut en bas ou de gauche à droite peuvent être utilisés pour stimuler la partie externe du clitoris, notamment le gland. Et peut également procurer du plaisir au deux individus 
 </t>
         </is>
       </c>
@@ -573,12 +590,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Sexualité humaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vagin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La stimulation manuelle du vagin peut donner du plaisir, notamment en stimulant l'entrée du vagin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Doigtage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doigtage</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Autres espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le doigtage s'observe chez les humains, mais également chez d'autres primates comme l'orang-outan[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le doigtage s'observe chez les humains, mais également chez d'autres primates comme l'orang-outan.
 </t>
         </is>
       </c>
